--- a/Kistenliste.xlsx
+++ b/Kistenliste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80a3b14bdc6a5990/Dokumente/Sport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80a3b14bdc6a5990/Dokumente/Sport/kistlenliste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="8_{08D00333-B9C3-401A-B328-E83E0EC1BDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76EF60AD-13FC-46FC-82F1-032F849E69AB}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="8_{08D00333-B9C3-401A-B328-E83E0EC1BDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54795246-BA0D-4BC1-931E-CCB6E3CB394F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5AA5D7E-ADEF-4D2D-8603-0DD7A51EC199}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,24 @@
   </si>
   <si>
     <t>Geteilte Kiste</t>
+  </si>
+  <si>
+    <t>Henning Meyer</t>
+  </si>
+  <si>
+    <t>Jens</t>
+  </si>
+  <si>
+    <t>Sieg Borussia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jupp </t>
+  </si>
+  <si>
+    <t>Sieg gegen Wacker Mecklenbeg</t>
+  </si>
+  <si>
+    <t>Abschlussspiel verloren (Training)</t>
   </si>
 </sst>
 </file>
@@ -2525,10 +2543,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98319D8A-799D-44E5-BF27-96DDEAFBB83A}" name="Tabelle1" displayName="Tabelle1" ref="A1:E150" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E150" xr:uid="{98319D8A-799D-44E5-BF27-96DDEAFBB83A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D20">
-    <sortCondition ref="D1:D150"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{98319D8A-799D-44E5-BF27-96DDEAFBB83A}" name="Tabelle1" displayName="Tabelle1" ref="A1:E149" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E149" xr:uid="{98319D8A-799D-44E5-BF27-96DDEAFBB83A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition ref="D1:D149"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{13232BC1-5A98-4FA3-9408-6E04A690E548}" name="Name" dataDxfId="4"/>
@@ -2858,10 +2876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFB4FBA-0696-420F-8839-51A80514E94A}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2869,8 +2887,8 @@
     <col min="1" max="1" width="26.7265625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.36328125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
@@ -2980,134 +2998,146 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45912</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>45907</v>
+        <v>45912</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45949</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45911</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>45921</v>
+        <v>45907</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45911</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45921</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45912</v>
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45912</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -3115,13 +3145,60 @@
         <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45961</v>
       </c>
     </row>
   </sheetData>
